--- a/team_specific_matrix/Wilberforce_B.xlsx
+++ b/team_specific_matrix/Wilberforce_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3478260869565217</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C2">
-        <v>0.2608695652173913</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.2608695652173913</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1304347826086956</v>
+        <v>0.05454545454545454</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3333333333333333</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6666666666666666</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1111111111111111</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1111111111111111</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,34 +758,34 @@
         <v>0</v>
       </c>
       <c r="J6">
+        <v>0.2</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.2</v>
+      </c>
+      <c r="R6">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="S6">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="R6">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="S6">
-        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2222222222222222</v>
+        <v>0.325</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05555555555555555</v>
+        <v>0.025</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05555555555555555</v>
+        <v>0.075</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.3888888888888889</v>
+        <v>0.275</v>
       </c>
       <c r="R8">
-        <v>0.05555555555555555</v>
+        <v>0.1</v>
       </c>
       <c r="S8">
-        <v>0.2222222222222222</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6</v>
+        <v>0.375</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="R9">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="S9">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1142857142857143</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.05714285714285714</v>
+        <v>0.04666666666666667</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.04285714285714286</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1428571428571428</v>
+        <v>0.14</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.3</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="R10">
-        <v>0.08571428571428572</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="S10">
-        <v>0.2571428571428571</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="K11">
-        <v>0.1</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="L11">
-        <v>0.8</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1111111111111111</v>
+        <v>0.375</v>
       </c>
       <c r="K12">
-        <v>0.1111111111111111</v>
+        <v>0.0625</v>
       </c>
       <c r="L12">
-        <v>0.1111111111111111</v>
+        <v>0.0625</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.09090909090909091</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1818181818181818</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4545454545454545</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K15">
-        <v>0.1818181818181818</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.09090909090909091</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.07692307692307693</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1538461538461539</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="J16">
-        <v>0.5384615384615384</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="K16">
-        <v>0.1538461538461539</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.07692307692307693</v>
+        <v>0.06451612903225806</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1401,16 +1401,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1612903225806452</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="I17">
-        <v>0.03225806451612903</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="J17">
-        <v>0.4516129032258064</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="K17">
-        <v>0.09677419354838709</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1290322580645161</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1290322580645161</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.125</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.25</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.125</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1519,28 +1519,28 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1842105263157895</v>
+        <v>0.2</v>
       </c>
       <c r="I19">
-        <v>0.1052631578947368</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="J19">
-        <v>0.5263157894736842</v>
+        <v>0.4588235294117647</v>
       </c>
       <c r="K19">
-        <v>0.05263157894736842</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07894736842105263</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.05263157894736842</v>
+        <v>0.09411764705882353</v>
       </c>
     </row>
   </sheetData>
